--- a/other/input/AQWMS/AQWMS_template_matching_table.xlsx
+++ b/other/input/AQWMS/AQWMS_template_matching_table.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC3581E-0C62-418F-B0B6-44011F719AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="35280" yWindow="-4455" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="site_coordinates" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +440,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -782,12 +783,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,10 +1097,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>60.481392</v>
+        <v>60.488999999999997</v>
       </c>
       <c r="B22">
-        <v>-150.11501999999999</v>
+        <v>-149.87700000000001</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -1129,10 +1130,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1381,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1448,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1541,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/other/input/AQWMS/AQWMS_template_matching_table.xlsx
+++ b/other/input/AQWMS/AQWMS_template_matching_table.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC3581E-0C62-418F-B0B6-44011F719AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ED676B-C7BF-4A8A-9437-876EA72CBF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35280" yWindow="-4455" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="site_coordinates" sheetId="1" r:id="rId1"/>
@@ -788,7 +788,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/other/input/AQWMS/AQWMS_template_matching_table.xlsx
+++ b/other/input/AQWMS/AQWMS_template_matching_table.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ED676B-C7BF-4A8A-9437-876EA72CBF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{18ED676B-C7BF-4A8A-9437-876EA72CBF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECF1C9B0-38DF-4B50-86FC-FC3F8F727D4A}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34770" yWindow="-1980" windowWidth="21600" windowHeight="11295" tabRatio="756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="site_coordinates" sheetId="1" r:id="rId1"/>
-    <sheet name="result_sample_fraction" sheetId="2" r:id="rId2"/>
-    <sheet name="result_detection_condition" sheetId="3" r:id="rId3"/>
-    <sheet name="chemical_preservative" sheetId="4" r:id="rId4"/>
-    <sheet name="sample_container_type_color" sheetId="5" r:id="rId5"/>
+    <sheet name="adec_site_names" sheetId="6" r:id="rId2"/>
+    <sheet name="result_sample_fraction" sheetId="2" r:id="rId3"/>
+    <sheet name="result_detection_condition" sheetId="3" r:id="rId4"/>
+    <sheet name="chemical_preservative" sheetId="4" r:id="rId5"/>
+    <sheet name="sample_container_type_color" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -51,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="151">
   <si>
     <t>KR RM 0 NNC</t>
   </si>
@@ -435,6 +447,75 @@
   </si>
   <si>
     <t>total nitrate/nitrite-N</t>
+  </si>
+  <si>
+    <t>MonitoringLocationName</t>
+  </si>
+  <si>
+    <t>KBL_t_00.0</t>
+  </si>
+  <si>
+    <t>KBL_m_01.5</t>
+  </si>
+  <si>
+    <t>KBL_m_10.1</t>
+  </si>
+  <si>
+    <t>KBL_t_10.0</t>
+  </si>
+  <si>
+    <t>KBL_m_12.5</t>
+  </si>
+  <si>
+    <t>KBL_m_18.0</t>
+  </si>
+  <si>
+    <t>KBL_t_19.0</t>
+  </si>
+  <si>
+    <t>KBL_m_21.0</t>
+  </si>
+  <si>
+    <t>KBL_t_22.0</t>
+  </si>
+  <si>
+    <t>KBL_m_23.0</t>
+  </si>
+  <si>
+    <t>KBL_t_30.0</t>
+  </si>
+  <si>
+    <t>KBL_m_31.0</t>
+  </si>
+  <si>
+    <t>KBL_t_36.0</t>
+  </si>
+  <si>
+    <t>KBL_m_40.0</t>
+  </si>
+  <si>
+    <t>KBL_m_43.0</t>
+  </si>
+  <si>
+    <t>KBL_t_33.0</t>
+  </si>
+  <si>
+    <t>KBL_t_50.0</t>
+  </si>
+  <si>
+    <t>KBL_m_06.5</t>
+  </si>
+  <si>
+    <t>KBL_t_70.0</t>
+  </si>
+  <si>
+    <t>KBL_t_74.0</t>
+  </si>
+  <si>
+    <t>KBL_t_79.5</t>
+  </si>
+  <si>
+    <t>KBL_m_82.0</t>
   </si>
 </sst>
 </file>
@@ -786,9 +867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:B22"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,6 +1211,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBE6CF8-6BF9-4E4A-954A-ABC37507FC2A}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -1381,7 +1740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1448,7 +1807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1541,7 +1900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>

--- a/other/input/AQWMS/AQWMS_template_matching_table.xlsx
+++ b/other/input/AQWMS/AQWMS_template_matching_table.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{18ED676B-C7BF-4A8A-9437-876EA72CBF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECF1C9B0-38DF-4B50-86FC-FC3F8F727D4A}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="34770" yWindow="-1980" windowWidth="21600" windowHeight="11295" tabRatio="756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34776" yWindow="-1980" windowWidth="21600" windowHeight="11292" tabRatio="756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="site_coordinates" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="chemical_preservative" sheetId="4" r:id="rId5"/>
     <sheet name="sample_container_type_color" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="174">
   <si>
     <t>KR RM 0 NNC</t>
   </si>
@@ -497,9 +496,6 @@
     <t>KBL_m_43.0</t>
   </si>
   <si>
-    <t>KBL_t_33.0</t>
-  </si>
-  <si>
     <t>KBL_t_50.0</t>
   </si>
   <si>
@@ -516,12 +512,84 @@
   </si>
   <si>
     <t>KBL_m_82.0</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000002</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000005</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000008</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000015</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000016</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000017</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000018</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000020</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000021</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000022</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000023</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000024</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000025</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000026</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000027</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000028</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000029</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000030</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000031</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000032</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000424</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000425</t>
+  </si>
+  <si>
+    <t>MonitoringLocationIdentifier</t>
+  </si>
+  <si>
+    <t>KBL_t_44.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -864,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -872,14 +940,14 @@
       <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -893,7 +961,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60.550888</v>
       </c>
@@ -907,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>60.543680000000002</v>
       </c>
@@ -921,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>60.539279000000001</v>
       </c>
@@ -935,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60.548029</v>
       </c>
@@ -949,7 +1017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60.533743000000001</v>
       </c>
@@ -966,7 +1034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>60.502004999999997</v>
       </c>
@@ -980,7 +1048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60.482317999999999</v>
       </c>
@@ -994,7 +1062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>60.476633999999997</v>
       </c>
@@ -1008,7 +1076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>60.483364000000002</v>
       </c>
@@ -1022,7 +1090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>60.480338000000003</v>
       </c>
@@ -1036,7 +1104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>60.489963000000003</v>
       </c>
@@ -1050,7 +1118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>60.498283999999998</v>
       </c>
@@ -1064,7 +1132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>60.53687</v>
       </c>
@@ -1078,7 +1146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>60.515441000000003</v>
       </c>
@@ -1092,7 +1160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>60.489843999999998</v>
       </c>
@@ -1106,7 +1174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>60.481518000000001</v>
       </c>
@@ -1120,7 +1188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>60.467517000000001</v>
       </c>
@@ -1134,7 +1202,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>60.54081</v>
       </c>
@@ -1148,7 +1216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>60.481392</v>
       </c>
@@ -1162,7 +1230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>60.484622000000002</v>
       </c>
@@ -1176,7 +1244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>60.488999999999997</v>
       </c>
@@ -1190,7 +1258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>60.492007000000001</v>
       </c>
@@ -1211,22 +1279,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBE6CF8-6BF9-4E4A-954A-ABC37507FC2A}">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1236,30 +1304,39 @@
       <c r="C1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1269,217 +1346,277 @@
       <c r="C4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C14" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C16" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>150</v>
+      <c r="D23" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1489,20 +1626,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
@@ -1513,52 +1650,52 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1569,87 +1706,87 @@
         <v>200.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -1660,7 +1797,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1671,7 +1808,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1682,22 +1819,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -1708,17 +1845,17 @@
         <v>200.7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -1729,7 +1866,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -1741,19 +1878,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>95</v>
       </c>
@@ -1761,12 +1898,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1774,27 +1911,27 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -1808,20 +1945,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -1832,7 +1969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -1843,7 +1980,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -1854,7 +1991,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -1865,7 +2002,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -1876,7 +2013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -1887,7 +2024,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>112</v>
       </c>
@@ -1901,21 +2038,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -1929,7 +2066,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1943,7 +2080,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -1957,7 +2094,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -1971,7 +2108,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -1985,7 +2122,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -1999,7 +2136,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -2013,7 +2150,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -2027,7 +2164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>45</v>
       </c>
